--- a/data/trans_dic/P6904-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6904-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P6904-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6904-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,26%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,42%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,85%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,61%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,15%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,27%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,45%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,27%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,28%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>20,86; 70,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>36,18; 76,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>36,79; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>18,77; 79,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>14,39; 85,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>27,36; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>13,46; 85,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>29,54; 82,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>27,25; 70,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>39,5; 76,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>35,24; 86,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>32,54; 72,33</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,57%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,34%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,33%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,36%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,24%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,58%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,07%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>38,43; 64,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>44,38; 71,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>31,15; 60,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>68,79; 90,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>47,17; 83,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>39,01; 78,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>59,05; 92,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,59</t>
+          <t>49,63; 73,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>44,82; 66,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,36</t>
+          <t>48,36; 70,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>45,49; 69,67</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,48</t>
+          <t>64,04; 80,51</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,99%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,77%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,09%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,29%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,27%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,04%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,53%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,37%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,52%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,18%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>39,56; 56,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>48,48; 68,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>54,46; 75,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,71</t>
+          <t>53,61; 73,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>29,18; 57,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>41,51; 68,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>53,92; 79,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>53,5; 70,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>39,44; 53,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,35</t>
+          <t>48,85; 65,35</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,39</t>
+          <t>58,04; 74,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>56,72; 69,52</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,35%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,1%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,44%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,27%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,28%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,9</t>
+          <t>44,77; 66,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>43,88; 67,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>48,73; 67,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>25,95; 52,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>46,95; 76,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>26,32; 53,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>58,37; 80,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>44,25; 74,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>49,58; 66,05</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>40,32; 57,93</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>56,18; 70,63</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>39,85; 63,52</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,76%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,44%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,07%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,63%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,56%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,08%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,08%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,97%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,54%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,87%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,93%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,93%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>46,57; 63,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>34,36; 57,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>48,76; 69,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>51,26; 72,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>36,01; 57,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>39,54; 66,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>48,07; 73,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,27</t>
+          <t>58,04; 75,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>45,0; 58,17</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,39</t>
+          <t>40,29; 56,79</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,31</t>
+          <t>52,28; 68,51</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>57,66; 71,43</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,24%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,55%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,7%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,66%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,2%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,71%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,08%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,57%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,48%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,21%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>47,51; 57,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>48,93; 61,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>54,02; 65,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>56,15; 67,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>44,66; 58,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>44,7; 58,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>60,78; 73,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>57,7; 68,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>48,48; 56,12</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>49,01; 58,39</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>58,22; 66,58</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>57,79; 65,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6904-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6904-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>43,26%</t>
+          <t>50,5%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>55,42%</t>
+          <t>57,73%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>74,85%</t>
+          <t>50,73%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>52,8%</t>
+          <t>75,97%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>57,27%</t>
+          <t>64,8%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>71,61%</t>
+          <t>62,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>43,45%</t>
+          <t>71,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>56,15%</t>
+          <t>60,97%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>47,27%</t>
+          <t>54,64%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>59,45%</t>
+          <t>59,3%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>61,27%</t>
+          <t>58,2%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>54,28%</t>
+          <t>69,46%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,86; 70,41</t>
+          <t>38,91; 62,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,18; 76,84</t>
+          <t>47,57; 68,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>36,79; 100,0</t>
+          <t>38,14; 64,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,77; 79,99</t>
+          <t>63,91; 84,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,39; 85,99</t>
+          <t>47,72; 80,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,36; 100,0</t>
+          <t>42,69; 77,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,46; 85,21</t>
+          <t>54,39; 85,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,54; 82,27</t>
+          <t>49,85; 71,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,25; 70,22</t>
+          <t>44,45; 63,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>39,5; 76,04</t>
+          <t>48,63; 67,64</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>35,24; 86,7</t>
+          <t>47,1; 68,76</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>32,54; 72,33</t>
+          <t>61,1; 76,48</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>52,2%</t>
+          <t>47,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>58,67%</t>
+          <t>58,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>46,57%</t>
+          <t>66,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>81,62%</t>
+          <t>64,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>66,54%</t>
+          <t>42,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>60,34%</t>
+          <t>55,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>79,17%</t>
+          <t>67,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>62,33%</t>
+          <t>62,39%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>56,36%</t>
+          <t>46,53%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>59,24%</t>
+          <t>57,37%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>57,58%</t>
+          <t>66,52%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>73,07%</t>
+          <t>63,43%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>38,43; 64,7</t>
+          <t>39,56; 56,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,38; 71,29</t>
+          <t>48,48; 68,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,15; 60,05</t>
+          <t>54,46; 75,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>68,79; 90,15</t>
+          <t>53,46; 73,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>47,17; 83,45</t>
+          <t>29,18; 57,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,01; 78,61</t>
+          <t>41,51; 68,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>59,05; 92,14</t>
+          <t>53,92; 79,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>49,63; 73,38</t>
+          <t>53,92; 70,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>44,82; 66,04</t>
+          <t>39,44; 53,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>48,36; 70,06</t>
+          <t>48,85; 65,35</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>45,49; 69,67</t>
+          <t>58,04; 74,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>64,04; 80,51</t>
+          <t>56,92; 69,83</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>47,99%</t>
+          <t>56,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>58,77%</t>
+          <t>56,78%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>66,09%</t>
+          <t>58,56%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>64,24%</t>
+          <t>36,96%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>42,51%</t>
+          <t>63,08%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>55,29%</t>
+          <t>38,41%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>67,27%</t>
+          <t>71,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>62,04%</t>
+          <t>68,09%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>46,53%</t>
+          <t>58,1%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>57,37%</t>
+          <t>49,44%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>66,52%</t>
+          <t>63,27%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>63,18%</t>
+          <t>56,78%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>39,56; 56,65</t>
+          <t>44,77; 66,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>48,48; 68,67</t>
+          <t>43,88; 67,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>54,46; 75,79</t>
+          <t>48,73; 67,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>53,61; 73,14</t>
+          <t>24,5; 51,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,18; 57,43</t>
+          <t>46,95; 76,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>41,51; 68,33</t>
+          <t>26,32; 53,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>53,92; 79,29</t>
+          <t>58,37; 80,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>53,5; 70,45</t>
+          <t>46,92; 89,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>39,44; 53,48</t>
+          <t>49,58; 66,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>48,85; 65,35</t>
+          <t>40,32; 57,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>58,04; 74,07</t>
+          <t>56,18; 70,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>56,72; 69,52</t>
+          <t>42,19; 82,78</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>56,0%</t>
+          <t>54,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>56,78%</t>
+          <t>45,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>58,56%</t>
+          <t>59,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38,19%</t>
+          <t>61,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>63,08%</t>
+          <t>46,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>38,41%</t>
+          <t>53,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>71,25%</t>
+          <t>61,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>57,35%</t>
+          <t>67,7%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>58,1%</t>
+          <t>51,54%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>49,44%</t>
+          <t>48,87%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>63,27%</t>
+          <t>59,93%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>49,28%</t>
+          <t>64,66%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>44,77; 66,67</t>
+          <t>46,57; 63,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,88; 67,56</t>
+          <t>34,36; 57,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>48,73; 67,61</t>
+          <t>48,76; 69,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,95; 52,57</t>
+          <t>51,04; 72,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>46,95; 76,81</t>
+          <t>36,01; 57,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,32; 53,6</t>
+          <t>39,54; 66,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>58,37; 80,73</t>
+          <t>48,07; 73,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>44,25; 74,07</t>
+          <t>58,07; 75,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>49,58; 66,05</t>
+          <t>45,0; 58,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>40,32; 57,93</t>
+          <t>40,29; 56,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>56,18; 70,63</t>
+          <t>52,28; 68,51</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>39,85; 63,52</t>
+          <t>57,43; 71,2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>54,76%</t>
+          <t>52,24%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>45,44%</t>
+          <t>54,83%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>59,07%</t>
+          <t>59,55%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>61,63%</t>
+          <t>61,49%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>46,56%</t>
+          <t>51,75%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>53,08%</t>
+          <t>51,66%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>61,08%</t>
+          <t>67,2%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>67,97%</t>
+          <t>65,29%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>51,54%</t>
+          <t>52,08%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>48,87%</t>
+          <t>53,57%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>59,93%</t>
+          <t>62,48%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>64,93%</t>
+          <t>63,43%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>46,57; 63,96</t>
+          <t>47,51; 57,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>34,36; 57,15</t>
+          <t>48,93; 61,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>48,76; 69,29</t>
+          <t>54,02; 65,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>51,26; 72,78</t>
+          <t>55,92; 67,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>36,01; 57,58</t>
+          <t>44,66; 58,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>39,54; 66,01</t>
+          <t>44,7; 58,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>48,07; 73,56</t>
+          <t>60,78; 73,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>58,04; 75,53</t>
+          <t>59,17; 75,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>45,0; 58,17</t>
+          <t>48,48; 56,12</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>40,29; 56,79</t>
+          <t>49,01; 58,39</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>52,28; 68,51</t>
+          <t>58,22; 66,58</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>57,66; 71,43</t>
+          <t>59,03; 69,14</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>52,24%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>54,83%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>59,55%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>61,7%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>51,75%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>51,66%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>67,2%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>62,71%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>52,08%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>53,57%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>62,48%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>62,21%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>47,51; 57,21</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>48,93; 61,16</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>54,02; 65,28</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>56,15; 67,09</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>44,66; 58,32</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>44,7; 58,16</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>60,78; 73,25</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>57,7; 68,42</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>48,48; 56,12</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>49,01; 58,39</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>58,22; 66,58</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>57,79; 65,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P6904-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6904-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>38,91; 62,17</t>
+          <t>38,49; 61,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>47,57; 68,54</t>
+          <t>47,54; 69,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,14; 64,2</t>
+          <t>36,83; 65,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>63,91; 84,63</t>
+          <t>64,75; 85,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>47,72; 80,48</t>
+          <t>47,18; 80,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>42,69; 77,58</t>
+          <t>45,92; 77,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>54,39; 85,3</t>
+          <t>53,81; 85,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,85; 71,36</t>
+          <t>49,45; 71,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>44,45; 63,66</t>
+          <t>45,4; 64,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>48,63; 67,64</t>
+          <t>48,86; 67,58</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>47,1; 68,76</t>
+          <t>47,21; 70,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>61,1; 76,48</t>
+          <t>61,42; 75,82</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>39,56; 56,65</t>
+          <t>39,45; 56,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,48; 68,67</t>
+          <t>47,46; 69,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>54,46; 75,79</t>
+          <t>54,84; 75,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53,46; 73,47</t>
+          <t>54,45; 74,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,18; 57,43</t>
+          <t>30,49; 57,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41,51; 68,33</t>
+          <t>41,43; 68,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>53,92; 79,29</t>
+          <t>53,56; 79,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>53,92; 70,78</t>
+          <t>53,88; 70,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>39,44; 53,48</t>
+          <t>39,27; 54,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>48,85; 65,35</t>
+          <t>49,49; 65,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>58,04; 74,07</t>
+          <t>56,83; 73,99</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>56,92; 69,83</t>
+          <t>56,48; 69,8</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>44,77; 66,67</t>
+          <t>46,88; 66,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,88; 67,56</t>
+          <t>44,56; 67,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>48,73; 67,61</t>
+          <t>49,11; 67,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,5; 51,31</t>
+          <t>24,19; 50,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,95; 76,81</t>
+          <t>48,78; 76,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,32; 53,6</t>
+          <t>26,13; 52,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>58,37; 80,73</t>
+          <t>58,72; 80,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>46,92; 89,56</t>
+          <t>46,77; 87,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>49,58; 66,05</t>
+          <t>50,0; 65,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>40,32; 57,93</t>
+          <t>40,58; 58,68</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>56,18; 70,63</t>
+          <t>55,8; 70,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>42,19; 82,78</t>
+          <t>41,06; 79,34</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>46,57; 63,96</t>
+          <t>46,27; 63,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,36; 57,15</t>
+          <t>34,74; 56,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>48,76; 69,29</t>
+          <t>47,36; 69,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>51,04; 72,64</t>
+          <t>49,52; 71,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,01; 57,58</t>
+          <t>35,9; 58,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,54; 66,01</t>
+          <t>40,07; 65,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>48,07; 73,56</t>
+          <t>47,1; 72,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>58,07; 75,03</t>
+          <t>59,65; 76,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>45,0; 58,17</t>
+          <t>45,74; 57,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>40,29; 56,79</t>
+          <t>40,21; 57,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>52,28; 68,51</t>
+          <t>51,42; 67,79</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>57,43; 71,2</t>
+          <t>58,05; 71,52</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>47,51; 57,21</t>
+          <t>47,36; 56,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>48,93; 61,16</t>
+          <t>49,21; 60,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>54,02; 65,28</t>
+          <t>54,1; 64,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>55,92; 67,08</t>
+          <t>55,63; 67,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>44,66; 58,32</t>
+          <t>45,5; 59,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>44,7; 58,16</t>
+          <t>44,37; 58,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>60,78; 73,25</t>
+          <t>60,83; 73,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>59,17; 75,5</t>
+          <t>59,44; 75,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>48,48; 56,12</t>
+          <t>48,19; 55,86</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>49,01; 58,39</t>
+          <t>49,01; 58,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>58,22; 66,58</t>
+          <t>58,35; 66,58</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>59,03; 69,14</t>
+          <t>59,07; 69,2</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que tiene dolores musculares</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>40066</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>44211</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>27737</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>54103</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>20892</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>22101</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21494</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>33340</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>60958</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>66313</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>49231</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>87444</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>30533; 48703</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>36403; 53038</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>20135; 35981</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>46112; 60608</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>15211; 25793</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16188; 27390</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>16096; 25438</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>27039; 38995</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>50651; 72288</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>54644; 75575</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>39932; 59788</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>77323; 95461</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>70059</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>53415</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>64100</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>72070</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>22442</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>33912</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>37372</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>61594</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>92500</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>87327</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>101472</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>133663</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>57587; 81850</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>43136; 63288</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>53190; 73118</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>60979; 83150</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>16098; 30261</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>25412; 41805</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>29753; 44169</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>53201; 69708</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>78059; 107626</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>75329; 99886</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>86690; 112864</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>119010; 147071</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>61564</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>45176</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>64381</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>20429</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>29353</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>20350</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>46133</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>65988</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>90917</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>65527</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>110515</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>86417</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>51543; 72724</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>35453; 53593</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>53984; 74665</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>13372; 27898</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>22698; 35784</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13844; 28065</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>38018; 52363</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>45324; 84671</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>78238; 103017</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>53780; 77777</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>97478; 123395</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>62491; 120748</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>75045</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>35639</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>52221</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>62172</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>41230</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>34019</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>40362</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>70337</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>116275</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>69658</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>92583</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>132509</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>63408; 87559</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>27249; 44236</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>41871; 61083</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>50029; 72003</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>31790; 51791</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>25681; 41889</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>31126; 47791</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>61970; 79335</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>103188; 130465</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>57307; 82512</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>79448; 104736</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>118964; 146561</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>246734</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>178441</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>208440</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>208774</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>113916</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>110383</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>145362</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>231260</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>360650</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>288825</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>353802</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>440034</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>223693; 268198</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>160143; 197915</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>189336; 227259</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>188867; 227692</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>100160; 129872</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>94801; 124703</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>131567; 159313</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>210530; 266559</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>333659; 386773</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>264194; 312849</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>330461; 377016</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>409751; 480048</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>